--- a/fileQuestion/de_toan_12.xlsx
+++ b/fileQuestion/de_toan_12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhacp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\04-05\project_internship\fileQuestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C8FA003-2869-4B2B-8607-13DBED1EFFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4ED7A1-8E9C-4F4B-9F93-F95D10A75BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F6F10E4-D38F-4A87-AE95-B285220ACD0E}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10200" xr2:uid="{7F6F10E4-D38F-4A87-AE95-B285220ACD0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,24 +59,6 @@
     <t>subject_id</t>
   </si>
   <si>
-    <t>Trong không gian \(\mathrm{Oxyz}\), mặt cầu \((S):(x+1)^2+(y-2)^2+z^2=9\) có bán kính bằng</t>
-  </si>
-  <si>
-    <t>Điểm nào dưới đây thuộc đồ thị hàm số \(y=x^4+x^2-2\)?&amp;nbsp;</t>
-  </si>
-  <si>
-    <t>Điểm P(-1;-1)</t>
-  </si>
-  <si>
-    <t>Điểm N(-1;-2)</t>
-  </si>
-  <si>
-    <t>Điểm M(-1; 0)</t>
-  </si>
-  <si>
-    <t>Điểm Q(-1; 1)</t>
-  </si>
-  <si>
     <t>Thể tích V của khối cầu bán kính r được tính theo công thức nào dưới đây?</t>
   </si>
   <si>
@@ -171,24 +153,42 @@
   </si>
   <si>
     <t>-6+4i</t>
+  </si>
+  <si>
+    <t>Trong không gian với hệ tọa độ Oxyz, hỏi trong các phương trình sau phương trình nào là phương trình của mặt cầu?</t>
+  </si>
+  <si>
+    <t>\({x^2} + {y^2} + {z^2} - 2x + 4z - 1 = 0\)</t>
+  </si>
+  <si>
+    <t>\({x^2} + {z^2} + 3x - 2y + 4z - 1 = 0\)</t>
+  </si>
+  <si>
+    <t>\({x^2} + {y^2} + {z^2} + 2xy - 4y + 4z - 1 = 0\)</t>
+  </si>
+  <si>
+    <t>\({x^2} + {y^2} + {z^2} - 2x + 2y - 4z + 8 = 0\)</t>
+  </si>
+  <si>
+    <t>Cho hàm số \(f\left( x \right)\) có đạo hàm là \(f'\left( x \right) = x{\left( {x + 1} \right)^2}{\left( {x - 2} \right)^4}\) với mọi \(x \in \mathbb{R}\). Số điểm cực trị của hàm số \(f\) là:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -196,10 +196,17 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,10 +229,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +551,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -582,23 +590,23 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>81</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -608,23 +616,23 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -635,22 +643,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -661,22 +669,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -687,22 +695,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -713,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>42</v>
@@ -739,22 +747,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -765,22 +773,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -791,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -817,22 +825,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -840,5 +848,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>